--- a/Coordenadas_Sedes.xlsx
+++ b/Coordenadas_Sedes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristobal Reyes\Documents\Admisión 2025\Análisis_Venta_Abril_2025\Por_Sede\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491F5C7-4FED-4C89-B761-3A35AA67D7CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90C3E53-52A9-47EC-A2F4-BAD465820827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{DF64E470-D3F4-4B38-BF4E-C907D6468F88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>NombreSede</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>San Pedro de la Paz</t>
+  </si>
+  <si>
+    <t>Sede Virtual</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3CCF69-E340-4223-98F7-7AC3B3C99DB9}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -953,6 +956,11 @@
         <v>-70.549640800000006</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
